--- a/GeneratedFiles/Products/Products.xlsx
+++ b/GeneratedFiles/Products/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\workhorse\Documents\Final Project\Data Managent(Zata-g)\GeneratedFiles\Products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725BD27F-B108-4F41-933E-838F76FFFCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB69E82-B66A-41F8-8CC9-997AAB28AED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,33 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>realme 2 pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone </t>
+  </si>
+  <si>
+    <t>Le Leco</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>moto edge 40 neo</t>
+  </si>
+  <si>
+    <t>boat 255+</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL 45 </t>
+  </si>
+  <si>
+    <t>Television</t>
   </si>
 </sst>
 </file>
@@ -384,18 +411,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +437,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -414,10 +448,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -425,10 +462,13 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -436,10 +476,13 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -447,10 +490,13 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>123441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -458,10 +504,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -469,10 +518,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -480,10 +532,13 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -491,7 +546,77 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>100000</v>
+        <v>131234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>124324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>12323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
